--- a/Template/SkillEffects.xlsx
+++ b/Template/SkillEffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97877345-2323-46CB-BF83-C7CDD36E846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E7F6F-7F52-4BFD-80EF-803D0FA6671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,13 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EffectRef</t>
-  </si>
-  <si>
-    <t>EffectRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +90,10 @@
   </si>
   <si>
     <t>{"is" : "Damage", "Ref": "SkillEffectsDamage", "RefField" : "Name" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectPart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -450,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -478,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -507,10 +504,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -557,22 +554,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Template/SkillEffects.xlsx
+++ b/Template/SkillEffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E7F6F-7F52-4BFD-80EF-803D0FA6671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F205C-8F31-467C-A6FB-132D8514F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41715" yWindow="4200" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,13 @@
   <si>
     <t>EffectPart</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighAggro</t>
   </si>
 </sst>
 </file>
@@ -419,24 +426,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -444,13 +450,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -458,9 +467,12 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -540,7 +552,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -554,21 +566,35 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Template/SkillEffects.xlsx
+++ b/Template/SkillEffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F205C-8F31-467C-A6FB-132D8514F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF13E37-8670-4EC0-9BD6-56EB69CE71F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41715" yWindow="4200" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -437,9 +437,8 @@
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -487,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Template/SkillEffects.xlsx
+++ b/Template/SkillEffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF13E37-8670-4EC0-9BD6-56EB69CE71F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976431EF-4BE2-4A63-841A-D14246DB6F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>HighAggro</t>
+  </si>
+  <si>
+    <t>FireballEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbnormalStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"is" : "AbnormalStatus", "Ref": "SkillEffectsAbnormalStatus", "RefField" : "Name" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,17 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -473,6 +498,40 @@
       </c>
       <c r="E2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -484,24 +543,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +579,11 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -535,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -549,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -563,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -577,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -595,6 +657,9 @@
       </c>
       <c r="F6" t="s">
         <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Template/SkillEffects.xlsx
+++ b/Template/SkillEffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976431EF-4BE2-4A63-841A-D14246DB6F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B3DE-12FF-4165-8DCE-0181F6BFB700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -519,7 +519,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/Template/SkillEffects.xlsx
+++ b/Template/SkillEffects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B3DE-12FF-4165-8DCE-0181F6BFB700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2496FBAA-D3C8-496D-B1B6-6706A5F27AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BasicAttackDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,23 +104,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireballDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProportionalDamageFromLostHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AbnormalStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProportionalDamageFromLostHpEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"is" : "AbnormalStatus", "Ref": "SkillEffectsAbnormalStatus", "RefField" : "Name" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelCasting</t>
+  </si>
+  <si>
+    <t>CancelCastingEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,20 +452,20 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -474,16 +473,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -491,47 +490,47 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -549,18 +548,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,16 +573,16 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -597,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -611,9 +610,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -625,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -639,9 +638,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -650,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
